--- a/data/02_intermediate/cleaned_Ashe_22_songs.xlsx
+++ b/data/02_intermediate/cleaned_Ashe_22_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>So le Flem So le Amine Ekip, ekip J'crois quen Dieu, ils adorent le bouc han On arrive, on instaure le doute ouais Chaque somme, au minimum, je double cash Aqua dans le 4x4 et dans le coup' Ils voulaient nous faire mais ils ont échoué eh Le plan d'Dieu est impossible à déjouer jamais On nest plus des gamins, mais on a des jouets pah R.E.P. à tous les migrants qui ont échoué On aime les BM' et les Benz, les VVS et les bands cash On a les brrr et les bang pah, cadavres de prods j'ai des bennes han 20-21, Corleone, Ashe 22, Scellé partie 4 J'arrive mal-fons', j'ai les party pack, dans ma main j'ai tous les as de la partie d'cartes eh Jamais on est dans les pactes jamais, cest nous les cartes introuvables dans les packs Jai vendu plus de physiques que des têtes de gondoles de la Fnac sans être dans les bacs eh Corleone, Ashe, on les terrorise han, c'est réel, cest pas des théories nan Élevé aux pâtes et élevé au riz han, passe à la vitesse des météorites sku Deux-deux Chen, ça va vite comme la fibre optique nion Dans l'labo', so le big Optim, j'ai cons des litres de shit et des kilos d'lean J'effrite la Cali, j'effrite le Dry, raconte pas ta vie, dis vite le prix Fugazi on fait vite le tri han, j'arrive plus blindé que le fils de Gris Bordeaux Bordeaux Sip' que du lin, pas des bordeaux lin C'est des vautours, ils nous voient comme des corbeaux ouais On a v'là les produits qu'ils peuvent pas sortir sans des ordo' non Big Freeze, big 2-2, on roule que des big de beuh Blindage, que j'esquive de peu, faut qu'mes enfants grandissent comme des riches fils de You might also like Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé Ils ont mis la d sous scellés Ils ont mis le g sous scellés Ils ont mis la tchop sous scellés Ils ont mis l'cash sous scellés Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé Ils ont mis la d sous scellés Ils ont mis le g sous scellés Ils ont mis la tchop sous scellés Ils ont mis l'cash sous scellés Drill, tous les rappeurs s'y sont mis brr, mais c'est pas la même catégorie pah On fait laguer l'algorithme, j'arrive avec trois gorilles Et que elle piste mes stories, eh, elle sait pas qu'tout l'cash que j'ai fait Vient d'un business horrible hey, on vient des pays torrides brr Demi-tour, shlass hey, c'est la zayz hey J'tache tous les billets dans l'stash brr Pas besoin d'eux, j'ai déjà un papa Sortez les pare-balles Plusieurs b par balle, j'envoie des parpaings J'en ai tellement fait, y a dix mille raisons d'voir mon nom dans leur fichier Un regard d'travers, j'ouvre ton crâne avec un flash de l'épicier Que d'la haine envers les Retour de Rotter', j'm'arrête pas pisser Tu joues l'Pablo, mais on sait qui t'es T'as poucave ton kho pour un 10g poukie On a grandi dans la, on a trainé devant l'bloc Tu joues les indics' devant le proc' donc tu vas danser devant le Glock brr, pah Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé Ils ont mis la d sous scellés Ils ont mis le g sous scellés Ils ont mis la tchop sous scellés Ils ont mis l'cash sous scellés Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé Ils ont mis la d sous scellés Ils ont mis le g sous scellés Ils ont mis la tchop sous scellés Ils ont mis l'cash sous scellés Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé</t>
+          <t>So le Flem So le Amine Ekip, ekip J'crois quen Dieu, ils adorent le bouc han On arrive, on instaure le doute ouais Chaque somme, au minimum, je double cash Aqua dans le 4x4 et dans le coup' Ils voulaient nous faire mais ils ont échoué eh Le plan d'Dieu est impossible à déjouer jamais On nest plus des gamins, mais on a des jouets pah R.E.P. à tous les migrants qui ont échoué On aime les BM' et les Benz, les VVS et les bands cash On a les brrr et les bang pah, cadavres de prods j'ai des bennes han 20-21, Corleone, Ashe 22, Scellé partie 4 J'arrive mal-fons', j'ai les party pack, dans ma main j'ai tous les as de la partie d'cartes eh Jamais on est dans les pactes jamais, cest nous les cartes introuvables dans les packs Jai vendu plus de physiques que des têtes de gondoles de la Fnac sans être dans les bacs eh Corleone, Ashe, on les terrorise han, c'est réel, cest pas des théories nan Élevé aux pâtes et élevé au riz han, passe à la vitesse des météorites sku Deux-deux Chen, ça va vite comme la fibre optique nion Dans l'labo', so le big Optim, j'ai cons des litres de shit et des kilos d'lean J'effrite la Cali, j'effrite le Dry, raconte pas ta vie, dis vite le prix Fugazi on fait vite le tri han, j'arrive plus blindé que le fils de Gris Bordeaux Bordeaux Sip' que du lin, pas des bordeaux lin C'est des vautours, ils nous voient comme des corbeaux ouais On a v'là les produits qu'ils peuvent pas sortir sans des ordo' non Big Freeze, big 2-2, on roule que des big de beuh Blindage, que j'esquive de peu, faut qu'mes enfants grandissent comme des riches fils de Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé Ils ont mis la d sous scellés Ils ont mis le g sous scellés Ils ont mis la tchop sous scellés Ils ont mis l'cash sous scellés Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé Ils ont mis la d sous scellés Ils ont mis le g sous scellés Ils ont mis la tchop sous scellés Ils ont mis l'cash sous scellés Drill, tous les rappeurs s'y sont mis brr, mais c'est pas la même catégorie pah On fait laguer l'algorithme, j'arrive avec trois gorilles Et que elle piste mes stories, eh, elle sait pas qu'tout l'cash que j'ai fait Vient d'un business horrible hey, on vient des pays torrides brr Demi-tour, shlass hey, c'est la zayz hey J'tache tous les billets dans l'stash brr Pas besoin d'eux, j'ai déjà un papa Sortez les pare-balles Plusieurs b par balle, j'envoie des parpaings J'en ai tellement fait, y a dix mille raisons d'voir mon nom dans leur fichier Un regard d'travers, j'ouvre ton crâne avec un flash de l'épicier Que d'la haine envers les Retour de Rotter', j'm'arrête pas pisser Tu joues l'Pablo, mais on sait qui t'es T'as poucave ton kho pour un 10g poukie On a grandi dans la, on a trainé devant l'bloc Tu joues les indics' devant le proc' donc tu vas danser devant le Glock brr, pah Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé Ils ont mis la d sous scellés Ils ont mis le g sous scellés Ils ont mis la tchop sous scellés Ils ont mis l'cash sous scellés Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé Ils ont mis la d sous scellés Ils ont mis le g sous scellés Ils ont mis la tchop sous scellés Ils ont mis l'cash sous scellés Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>So le Amine 2-2, Corleone 667, LZ J'lâche jamais la garde Hey et là, j'prépare un coup sec Brr À la douane, j'me fais discret comme dix kilos d're-p' dans une poussette Joue pas au mafieux avec nous, tu vas t'faire lamer par un p'tit qui a l'corps tout sec J'ai un Glock 17 Brr, j'ai jamais appelé l'17 Brr, brr Tu connais la devise un vrai DZ en vaut une dizaine Dizaine Et là, j'ai des produits à détailler, peser, pochetonner, ramener la mizen Mizen On a fait du le-sa dans nos vies pour v'-esqui la misère Splash Va falloir s'y faire, j'marche avec Dieu, pas avec Lucifer Pah Moi, j'veux la paix pour Gaza, j'suis né trois ans après l'intifada Tu peux nourrir dix familles juste pour l'prix d'une paire de Prada Paire de Prada Avec les khos, on a grandi trop vite, si t'es le mien, j'prends tes patins J'prends tes patins Maintenant, j'vends des CD à mort-mort, j'remplis les gradins Han, brr Fuck un haut-gradé Hey, j'vise la tête, l'impact a touché son dégradé Lunettes Cartier, verres dégradés Furtif comme si j'suis en train d'm'évader, plus d'âme, ils sont obligés d'les brader Brader Pade', codé', j'pourrais visser des gues-sh' les yeux bandés Doigt sur la lame du cran d'arrêt, pour éviter d'le planter J'ai le cardio de Kanté, le goal sort, le lob, obligé d'le tenter J'découpe, j'ai la lame de Dante, on dirait qu'les prods sortent de maisons hantées You might also like Corleone, Ashe 2-2, j'ai cons' des plaques de te' et des packs de beuh Gros montant dans les cartes bleues Cash, 667, LZ, TOTY que des cartes bleues Nion Ces fils de pute veulent nous faire de très haut Eh, peur de personne à part du Très Haut Nan Vrai négro depuis l'époque du préau, dans la matrice, j'me sens comme si j'suis Neo So la secte négro, so les trois lettres Trois lettres, trois lettres, ekip, ekip, ekip, ekip Cryptomonnaie coffrée dans les wallets Négro, il m'faut l'cash de Pusha T Cash, pétasse il m'faut les sous d'Ice-T Cash Cagoule, Cartier Santos, j'arrive fonce-dé au lin comme Pooh Shiesty Compte en banque avec v'là d'zéros Han, première mi-temps, on leur met 4-0 Sku Killu' à vie, fuck les réseaux pédo, so Karl Zéro Chen Zen, général Han, j'me sens comme Vybz à Gaza Musique anti-Dajjal, so à Saza Fuck eux à vie comme si j'habite à Gaza Gaza Maintenant, j'vends des CD à mort-mort, j'remplis les gradins Han, brr Fuck un haut-gradé Hey, j'vise la tête, l'impact a touché son dégradé Lunettes Cartier, verres dégradés Furtif comme si j'suis en train d'm'évader, plus d'âme, ils sont obligés d'les brader Brader Pade', codé', j'pourrais visser des gues-sh' les yeux bandés Doigt sur la lame du cran d'arrêt, pour éviter d'le planter J'ai le cardio de Kanté, le goal sort, le lob, obligé d'le tenter J'découpe, j'ai la lame de Dante, on dirait qu'les prods sortent de maisons hantées J'remplis les gradins Fuck un haut-gradé, j'vise la tête, l'impact a touché son dégradé Lunettes Cartier, verres dégradés Furtif comme si j'suis en train d'm'évader, plus d'âme, ils sont obligés d'les brader Brader Pade', codé', j'pourrais visser des gueus-sh' les yeux bandés Doigt sur la lame du cran d'arrêt, pour éviter d'le planter J'ai le cardio de Kanté, le goal sort, le lob, obligé d'le tenter J'découpe, j'ai la lame de Dante, on dirait qu'les prods sortent de maisons hantées1</t>
+          <t>So le Amine 2-2, Corleone 667, LZ J'lâche jamais la garde Hey et là, j'prépare un coup sec Brr À la douane, j'me fais discret comme dix kilos d're-p' dans une poussette Joue pas au mafieux avec nous, tu vas t'faire lamer par un p'tit qui a l'corps tout sec J'ai un Glock 17 Brr, j'ai jamais appelé l'17 Brr, brr Tu connais la devise un vrai DZ en vaut une dizaine Dizaine Et là, j'ai des produits à détailler, peser, pochetonner, ramener la mizen Mizen On a fait du le-sa dans nos vies pour v'-esqui la misère Splash Va falloir s'y faire, j'marche avec Dieu, pas avec Lucifer Pah Moi, j'veux la paix pour Gaza, j'suis né trois ans après l'intifada Tu peux nourrir dix familles juste pour l'prix d'une paire de Prada Paire de Prada Avec les khos, on a grandi trop vite, si t'es le mien, j'prends tes patins J'prends tes patins Maintenant, j'vends des CD à mort-mort, j'remplis les gradins Han, brr Fuck un haut-gradé Hey, j'vise la tête, l'impact a touché son dégradé Lunettes Cartier, verres dégradés Furtif comme si j'suis en train d'm'évader, plus d'âme, ils sont obligés d'les brader Brader Pade', codé', j'pourrais visser des gues-sh' les yeux bandés Doigt sur la lame du cran d'arrêt, pour éviter d'le planter J'ai le cardio de Kanté, le goal sort, le lob, obligé d'le tenter J'découpe, j'ai la lame de Dante, on dirait qu'les prods sortent de maisons hantées Corleone, Ashe 2-2, j'ai cons' des plaques de te' et des packs de beuh Gros montant dans les cartes bleues Cash, 667, LZ, TOTY que des cartes bleues Nion Ces fils de pute veulent nous faire de très haut Eh, peur de personne à part du Très Haut Nan Vrai négro depuis l'époque du préau, dans la matrice, j'me sens comme si j'suis Neo So la secte négro, so les trois lettres Trois lettres, trois lettres, ekip, ekip, ekip, ekip Cryptomonnaie coffrée dans les wallets Négro, il m'faut l'cash de Pusha T Cash, pétasse il m'faut les sous d'Ice-T Cash Cagoule, Cartier Santos, j'arrive fonce-dé au lin comme Pooh Shiesty Compte en banque avec v'là d'zéros Han, première mi-temps, on leur met 4-0 Sku Killu' à vie, fuck les réseaux pédo, so Karl Zéro Chen Zen, général Han, j'me sens comme Vybz à Gaza Musique anti-Dajjal, so à Saza Fuck eux à vie comme si j'habite à Gaza Gaza Maintenant, j'vends des CD à mort-mort, j'remplis les gradins Han, brr Fuck un haut-gradé Hey, j'vise la tête, l'impact a touché son dégradé Lunettes Cartier, verres dégradés Furtif comme si j'suis en train d'm'évader, plus d'âme, ils sont obligés d'les brader Brader Pade', codé', j'pourrais visser des gues-sh' les yeux bandés Doigt sur la lame du cran d'arrêt, pour éviter d'le planter J'ai le cardio de Kanté, le goal sort, le lob, obligé d'le tenter J'découpe, j'ai la lame de Dante, on dirait qu'les prods sortent de maisons hantées J'remplis les gradins Fuck un haut-gradé, j'vise la tête, l'impact a touché son dégradé Lunettes Cartier, verres dégradés Furtif comme si j'suis en train d'm'évader, plus d'âme, ils sont obligés d'les brader Brader Pade', codé', j'pourrais visser des gueus-sh' les yeux bandés Doigt sur la lame du cran d'arrêt, pour éviter d'le planter J'ai le cardio de Kanté, le goal sort, le lob, obligé d'le tenter J'découpe, j'ai la lame de Dante, on dirait qu'les prods sortent de maisons hantées1</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>So le Amine Ekip Ice, ice VVS Corleone Ice, ice, ice Brr, brr Eh Ice, brr Ça glisse, secoue Wow, j'en tire quatre, reste plus qu'deux coups Wow Si j'en prends une, j'reste debout Wow, j'ai pas l'temps d'joindre les deux bouts Glock sous l'boubou, allume les fufus Wow, tu voulais un feat', on t'a recalé Wow Tu veux d'la dope ? Va au fond d'l'allée Pas d'danse, pas d'coupé-décalé, fois trois et Cali, pas d'Népalais Splash Big drip, j'envoie des big dribbles, dans la massa, mts le big triple Eh, eh Picto pour cux qui veulent faire des big trips, 6.6.7, L.Z, équipe type Hey, hey Toute l'année, visser un teufeur, fufu, tu fais partie du clan des bluffeurs Une fois, deux fois, trois fois Chef, y a que les caniches qui aboient Brr La sape est italienne, drip, j'suis mouillé, galette de , faut touiller Ouais, faut l'douiller, en face, il faut l'douiller La sape est italienne, drip, j'suis mouillé Galette de , faut touiller Une pookie en face, il faut l'douiller You might also like Cartier sertie, client servi Grr, ice, il fait froid comme en Serbie Ice Cartier sertie, j'ai les certif' Ice, VVS, platine, or, j'ai les certif' Ice, ice J'ai mis des diams sur la Cartier Wow, ice, on arrive lourd comme un bombardier Wow J'arrive blindé comme Bombardier Hein, j'ai mis des diamants sur la montre Cartier Ice Cartier sertie, client servi Grr, ice, il fait froid comme en Serbie Brr Cartier sertie, j'ai les certif' Wow, VVS, platine, or, j'ai les certif' Wow J'ai mis des diams sur la Cartier Cartier, on arrive lourd comme un bombardier Waw J'arrive blindé comme Bombardier Hein, j'ai mis des diamants sur la montre Cartier 6.6.7, L.Z aka l'avalanche Han, faut que j'pèse comme si j'étais attaquant à Valence Cash Cons' plus d'essence qu'une Cadillac Avalanche, so Heenok, deuxième forme comme un Gravalanch Ekip Corleone, Ashe, Mané, Mahrez Ekip, on sait qu'tu bluffes, allez, arrête Ouais On fume des plaquettes, ils fument des barrettes et j'mets les trois points comme R.J. Barrett Fuck un snitch, fuck un indicateur Han, il fait qu'mentir, c'est qu'un big capeur Eh J'arrive déter' comme un dictateur, dans mes notes, j'ai des rimes interdites, t'as peur Eh, pétasse J'regarde les rappeurs, j'les vois comme des putes qui flexent Eh, eh, eh Pétasse, on l'fait pour les penthouses et les multiplex V'là l'chemin depuis l'époque des Obey, mon steak découpé sur des Kobé Han Au téléphone, le langage est codé, mentalité Mamba, R.E.P Kobe Kobe Grosse Moncler, j'me bats contre le froid Han, Corleone avec le Onze deux fois 2-2 Rap FR, 11.43 contre le foie, tu peux pas être pour si t'as une once de foi Cartier sertie, client servi Grr, ice, il fait froid comme en Serbie Ice Cartier sertie, j'ai les certif' Ice, VVS, platine, or, j'ai les certif' Ice, ice J'ai mis des diams sur la Cartier Wow, ice, on arrive lourd comme un bombardier Wow J'arrive blindé comme Bombardier Hein, j'ai mis des diamants sur la montre Cartier Ice Cartier sertie, client servi Grr, ice, il fait froid comme en Serbie Brr Cartier sertie, j'ai les certif' Wow, VVS, platine, or, j'ai les certif' Wow J'ai mis des diams sur la Cartier Cartier, on arrive lourd comme un bombardier Waw J'arrive blindé comme Bombardier Hein, j'ai mis des diamants sur la montre Cartier</t>
+          <t>So le Amine Ekip Ice, ice VVS Corleone Ice, ice, ice Brr, brr Eh Ice, brr Ça glisse, secoue Wow, j'en tire quatre, reste plus qu'deux coups Wow Si j'en prends une, j'reste debout Wow, j'ai pas l'temps d'joindre les deux bouts Glock sous l'boubou, allume les fufus Wow, tu voulais un feat', on t'a recalé Wow Tu veux d'la dope ? Va au fond d'l'allée Pas d'danse, pas d'coupé-décalé, fois trois et Cali, pas d'Népalais Splash Big drip, j'envoie des big dribbles, dans la massa, mts le big triple Eh, eh Picto pour cux qui veulent faire des big trips, 6.6.7, L.Z, équipe type Hey, hey Toute l'année, visser un teufeur, fufu, tu fais partie du clan des bluffeurs Une fois, deux fois, trois fois Chef, y a que les caniches qui aboient Brr La sape est italienne, drip, j'suis mouillé, galette de , faut touiller Ouais, faut l'douiller, en face, il faut l'douiller La sape est italienne, drip, j'suis mouillé Galette de , faut touiller Une pookie en face, il faut l'douiller Cartier sertie, client servi Grr, ice, il fait froid comme en Serbie Ice Cartier sertie, j'ai les certif' Ice, VVS, platine, or, j'ai les certif' Ice, ice J'ai mis des diams sur la Cartier Wow, ice, on arrive lourd comme un bombardier Wow J'arrive blindé comme Bombardier Hein, j'ai mis des diamants sur la montre Cartier Ice Cartier sertie, client servi Grr, ice, il fait froid comme en Serbie Brr Cartier sertie, j'ai les certif' Wow, VVS, platine, or, j'ai les certif' Wow J'ai mis des diams sur la Cartier Cartier, on arrive lourd comme un bombardier Waw J'arrive blindé comme Bombardier Hein, j'ai mis des diamants sur la montre Cartier 6.6.7, L.Z aka l'avalanche Han, faut que j'pèse comme si j'étais attaquant à Valence Cash Cons' plus d'essence qu'une Cadillac Avalanche, so Heenok, deuxième forme comme un Gravalanch Ekip Corleone, Ashe, Mané, Mahrez Ekip, on sait qu'tu bluffes, allez, arrête Ouais On fume des plaquettes, ils fument des barrettes et j'mets les trois points comme R.J. Barrett Fuck un snitch, fuck un indicateur Han, il fait qu'mentir, c'est qu'un big capeur Eh J'arrive déter' comme un dictateur, dans mes notes, j'ai des rimes interdites, t'as peur Eh, pétasse J'regarde les rappeurs, j'les vois comme des putes qui flexent Eh, eh, eh Pétasse, on l'fait pour les penthouses et les multiplex V'là l'chemin depuis l'époque des Obey, mon steak découpé sur des Kobé Han Au téléphone, le langage est codé, mentalité Mamba, R.E.P Kobe Kobe Grosse Moncler, j'me bats contre le froid Han, Corleone avec le Onze deux fois 2-2 Rap FR, 11.43 contre le foie, tu peux pas être pour si t'as une once de foi Cartier sertie, client servi Grr, ice, il fait froid comme en Serbie Ice Cartier sertie, j'ai les certif' Ice, VVS, platine, or, j'ai les certif' Ice, ice J'ai mis des diams sur la Cartier Wow, ice, on arrive lourd comme un bombardier Wow J'arrive blindé comme Bombardier Hein, j'ai mis des diamants sur la montre Cartier Ice Cartier sertie, client servi Grr, ice, il fait froid comme en Serbie Brr Cartier sertie, j'ai les certif' Wow, VVS, platine, or, j'ai les certif' Wow J'ai mis des diams sur la Cartier Cartier, on arrive lourd comme un bombardier Waw J'arrive blindé comme Bombardier Hein, j'ai mis des diamants sur la montre Cartier</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>So le Flem So le Amine Roule des gros tehs avec des choses qui collent, verre de lin avec des doses qui cognent On arrive cains-cains comme des grosses Lincoln Han, laser vert comme dans Ghost Recon Sur la prod', j'arrive autant nerveux qu'un daron du bled, la kichta est tellement épaisse Sku J'ai quatre-vingt-mille devant moi, j'peux m'acheter un duplex, avc des faux diamants, tu flexes Eh Et j'mts les trois points comme Larry Bird, il m'faut un comptable comme Marty Byrde Baba, brr Pchh, que du big drippin' Avec le Freeze Corleone dans lacuisine, nous on fait que whip wippin' V'là le lin dans le verre Lin, v'là le Dry dans le teh Hey Des fois, j'pense à mon grand-père quand je perr Je perr, je perr , , ça shoote plus qu'en Angleterre Pah, pah Art d'la guerre, va falloir allumer le plus déter'Brr Ça va péter comme dans CS Han, faut rouler en Maybach, pas en DS Cartier, Rolex sans VS, sur les prods', que des perfect en VS Han, poh J'prends les paris, quatre-vingt-dix pourcents, c'est des crari Eh So au 69 et à tout Paris, et mes frères ont toujours les yeux rouges Ferrari 20-21, on augmente les tarifs Sku, au mic', précis comme si j'taffe dans les Marines Balance l'audio dope dans les narines, so Walter, faut coffrer les liasses dans les barils Des euros, big CB, dans la street, j'en ai assez fait Froid et discret, j'suis au KGB, , , simple comme A.B.C C'est des comiques comme A.D.C Eh, Mike Amiri, pas de A.P.C Nan Converti l'occas' à chaque essai, tous les couplets, c'est des AVC, pétasse AVC, j'ai un ge-sh' à visser, j'suis grave pressé J'suis grave précis, hey Et sur l'PC, j'ai FL Studio en version d'essai, pétasse Chen et le Ashe empilent le cash, la Cali, le H, faut gonfler le Stash So mes Suisses, so CDF, so le OG, le Bim et le Bash Brr Bitch, faut appeler v'là d'copines, tous ces rappeurs sont de vulgaires pâles copies Eh Chez nous pas d'alcoolique, Harlem à fond, so Malcolm X On fait qusallumer sans raison Hey, pour mes négros, faut des grandes maisons Brr Pour les pédos', faut des pendaisons Faut des pendaisons Sur le nez, j'ai mis les quatre saisons,nous, on n'écoute pas tes sons J'sais qu'ils veulent noyer le poisson Han, dans la boisson, j'ajoute le poison Lin Ashe, Corleone aka Riyad et Sadio Fuck Skyrock, R.À.F des radios Fuck, on veut les mêmes sous qu'les Rabiot Cash Corleone, 2-2 aka Sadio, Riyad Mahrez, 2-2, Corleone, tu sais bien que y a qu'Allah qui nous arrête You might also like PDP, ça shoot plus qu'en Angleterre Art d'la guerre, va falloir allumer le plus déter' Converti l'occas' à chaque essai Tous les couplets, c'est des AVC, pétasse2</t>
+          <t>So le Flem So le Amine Roule des gros tehs avec des choses qui collent, verre de lin avec des doses qui cognent On arrive cains-cains comme des grosses Lincoln Han, laser vert comme dans Ghost Recon Sur la prod', j'arrive autant nerveux qu'un daron du bled, la kichta est tellement épaisse Sku J'ai quatre-vingt-mille devant moi, j'peux m'acheter un duplex, avc des faux diamants, tu flexes Eh Et j'mts les trois points comme Larry Bird, il m'faut un comptable comme Marty Byrde Baba, brr Pchh, que du big drippin' Avec le Freeze Corleone dans lacuisine, nous on fait que whip wippin' V'là le lin dans le verre Lin, v'là le Dry dans le teh Hey Des fois, j'pense à mon grand-père quand je perr Je perr, je perr , , ça shoote plus qu'en Angleterre Pah, pah Art d'la guerre, va falloir allumer le plus déter'Brr Ça va péter comme dans CS Han, faut rouler en Maybach, pas en DS Cartier, Rolex sans VS, sur les prods', que des perfect en VS Han, poh J'prends les paris, quatre-vingt-dix pourcents, c'est des crari Eh So au 69 et à tout Paris, et mes frères ont toujours les yeux rouges Ferrari 20-21, on augmente les tarifs Sku, au mic', précis comme si j'taffe dans les Marines Balance l'audio dope dans les narines, so Walter, faut coffrer les liasses dans les barils Des euros, big CB, dans la street, j'en ai assez fait Froid et discret, j'suis au KGB, , , simple comme A.B.C C'est des comiques comme A.D.C Eh, Mike Amiri, pas de A.P.C Nan Converti l'occas' à chaque essai, tous les couplets, c'est des AVC, pétasse AVC, j'ai un ge-sh' à visser, j'suis grave pressé J'suis grave précis, hey Et sur l'PC, j'ai FL Studio en version d'essai, pétasse Chen et le Ashe empilent le cash, la Cali, le H, faut gonfler le Stash So mes Suisses, so CDF, so le OG, le Bim et le Bash Brr Bitch, faut appeler v'là d'copines, tous ces rappeurs sont de vulgaires pâles copies Eh Chez nous pas d'alcoolique, Harlem à fond, so Malcolm X On fait qusallumer sans raison Hey, pour mes négros, faut des grandes maisons Brr Pour les pédos', faut des pendaisons Faut des pendaisons Sur le nez, j'ai mis les quatre saisons,nous, on n'écoute pas tes sons J'sais qu'ils veulent noyer le poisson Han, dans la boisson, j'ajoute le poison Lin Ashe, Corleone aka Riyad et Sadio Fuck Skyrock, R.À.F des radios Fuck, on veut les mêmes sous qu'les Rabiot Cash Corleone, 2-2 aka Sadio, Riyad Mahrez, 2-2, Corleone, tu sais bien que y a qu'Allah qui nous arrête PDP, ça shoot plus qu'en Angleterre Art d'la guerre, va falloir allumer le plus déter' Converti l'occas' à chaque essai Tous les couplets, c'est des AVC, pétasse2</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>So le Flem So le Amine 2-2, Corleone Sadio, Riyad 6.6.7, L.Z Ekip Lin dans l'code red Lin, chaque prod' finit avec le corps raide J'arrive fini à la beuh comme Red J'fume la bonne pha', j'allume la Tom Ford J'manipule la wax, négro, on dirait d'la colle forte J'suis là pour le cash, il m'faut trois fois les dought d'Diams Avec le Ashe, on s'moque des rappeurs avec des faux diams V'là d'cousins comme un O.G Crips, le chrome est gris Han J'ai cons' trop d'hybrides, gros aqua dans un Audi gris J'ai arrêté deux fois mais j'lean encore comme Fnix Flexin Lin Trois fois sous vide devant l chien, impossible qu'il s'excite Eh On envoie que d'la pure comme la Bolivie Han On veut les Paul Newman certifiées par Olivine Pas l'temps pour les jolies filles Brr, big cup, big lean depuis l'époque de Chief Keef Ouh Huit mesures, ta bitch kiffe Han, huit mesures, ta bitch kiffe Flem, Amine, que des multipistes, euros, dollars, dinars, que j'les multiplie J'roule un bon p'tit pli', en défense comme Umtiti Hey, hey, le sable coule du sablier Tter-gra, j'peux pas plier, j'ai ma dague comme un Templier Belek à tes meufs, tu peux vite finir par transpirer Crari ils écoutent as-p mais j'sais qu'ils font qu's'inspirer Y a que des vampires, j'sais qu'mon sang, ils veulent aspirer Freeze, 2-2 sur la prod', tu peux même plus respirer Les frères au bled font qu'espérer pour l'visa expiré J'ai dégradé la prod', son état fait que empirer J'rajoute du sirop, la bouteille, je la remplirai J'ai pas un ennemi qui s'en est bien tiré Splash, j'sais qu'ils vont courir si j'me mets à tirer Charcle Par les big billets, on est attirés, avec mes propres mains, la maison d'mama, je la bâtirai Hey, hey, hey You might also like Par les big billets, on est attirés Cash, laisse les coups francs, négro, si tu sais pas tirer Faut jamais dégainer si t'es pas prêt à tirer, j'aime bien les Walther P22 facile à tirer Burberry, Moncler, Mike Amiri, AF1 Han, ça bombarde, ça cons' beaucoup d'essence comme la F1 Charcle J'me demande bien où ils étaient quand on avait faim, maintenant, on a la dalle mais c'est même plus la même faim Eh, eh Entre eux et nous, trop d'écarts d'niveaux, pas d'rivaux, gang shit, comme à San Bernardino Gang Souvent, j'regarde mon cup, négro et j'pense à Pimo Gang shit J'arrive full tatoué comme un membre de gang latino Gang shit On arrive masqués comme les Anonymous Wow, wow, tous les jours, j'allume des Anonymouz Chen Zen aka Ra's al, j'fume des casas, des zazas Han Tous les jours, j'fuck les khazare, nous c'est Dieu et eux, c'est hazard Big so à Saza, depuis 2000, représente Gaza, dans ma te-tê, c'est un bazar Et j'fais que viser au-d'ssus du bassin, et j'porte pas d'mocassins Venez à cent, on vous termine à cinq, calibrés dans l'réel et eux, que sur GTA 5 Allemandes dans les A5, les négros, on dirait qu'pour eux, rester vrai, c'est pas simple Chen Zen, Ashe 2-2 aka les requins dans les bassins Han Faut v'là d'villas et négro, j'm'arrête pas tant qu'j'en ai pas cinq Hey Grr1</t>
+          <t>So le Flem So le Amine 2-2, Corleone Sadio, Riyad 6.6.7, L.Z Ekip Lin dans l'code red Lin, chaque prod' finit avec le corps raide J'arrive fini à la beuh comme Red J'fume la bonne pha', j'allume la Tom Ford J'manipule la wax, négro, on dirait d'la colle forte J'suis là pour le cash, il m'faut trois fois les dought d'Diams Avec le Ashe, on s'moque des rappeurs avec des faux diams V'là d'cousins comme un O.G Crips, le chrome est gris Han J'ai cons' trop d'hybrides, gros aqua dans un Audi gris J'ai arrêté deux fois mais j'lean encore comme Fnix Flexin Lin Trois fois sous vide devant l chien, impossible qu'il s'excite Eh On envoie que d'la pure comme la Bolivie Han On veut les Paul Newman certifiées par Olivine Pas l'temps pour les jolies filles Brr, big cup, big lean depuis l'époque de Chief Keef Ouh Huit mesures, ta bitch kiffe Han, huit mesures, ta bitch kiffe Flem, Amine, que des multipistes, euros, dollars, dinars, que j'les multiplie J'roule un bon p'tit pli', en défense comme Umtiti Hey, hey, le sable coule du sablier Tter-gra, j'peux pas plier, j'ai ma dague comme un Templier Belek à tes meufs, tu peux vite finir par transpirer Crari ils écoutent as-p mais j'sais qu'ils font qu's'inspirer Y a que des vampires, j'sais qu'mon sang, ils veulent aspirer Freeze, 2-2 sur la prod', tu peux même plus respirer Les frères au bled font qu'espérer pour l'visa expiré J'ai dégradé la prod', son état fait que empirer J'rajoute du sirop, la bouteille, je la remplirai J'ai pas un ennemi qui s'en est bien tiré Splash, j'sais qu'ils vont courir si j'me mets à tirer Charcle Par les big billets, on est attirés, avec mes propres mains, la maison d'mama, je la bâtirai Hey, hey, hey Par les big billets, on est attirés Cash, laisse les coups francs, négro, si tu sais pas tirer Faut jamais dégainer si t'es pas prêt à tirer, j'aime bien les Walther P22 facile à tirer Burberry, Moncler, Mike Amiri, AF1 Han, ça bombarde, ça cons' beaucoup d'essence comme la F1 Charcle J'me demande bien où ils étaient quand on avait faim, maintenant, on a la dalle mais c'est même plus la même faim Eh, eh Entre eux et nous, trop d'écarts d'niveaux, pas d'rivaux, gang shit, comme à San Bernardino Gang Souvent, j'regarde mon cup, négro et j'pense à Pimo Gang shit J'arrive full tatoué comme un membre de gang latino Gang shit On arrive masqués comme les Anonymous Wow, wow, tous les jours, j'allume des Anonymouz Chen Zen aka Ra's al, j'fume des casas, des zazas Han Tous les jours, j'fuck les khazare, nous c'est Dieu et eux, c'est hazard Big so à Saza, depuis 2000, représente Gaza, dans ma te-tê, c'est un bazar Et j'fais que viser au-d'ssus du bassin, et j'porte pas d'mocassins Venez à cent, on vous termine à cinq, calibrés dans l'réel et eux, que sur GTA 5 Allemandes dans les A5, les négros, on dirait qu'pour eux, rester vrai, c'est pas simple Chen Zen, Ashe 2-2 aka les requins dans les bassins Han Faut v'là d'villas et négro, j'm'arrête pas tant qu'j'en ai pas cinq Hey Grr1</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>So le Flem Corleone et 22 Ekip, j'roule des Philly, j'mets des vingt d'beuh Fuck 12, le 17 et les 22 Lin, Fanta orange, j'remonte la balle comme Ja Morant Au Sénégal, il m'faut tout de la villa au ranch Black Macaroni, so Tony Bamboula Ekip C'est moi ou la prod' comme si on est à deux dans l'goulag Pah Ekip à fond, so A.S.B gang, Goulag Ekip Négro capte pas c'que j'dis comme si j'rappais en pulaar Hein Fume que d'l'artifice, au-d'ssus comme un feu d'artifice On n'parle pas d'être-humain quand on parle de sacrifice Ah So les blindages, à chaque fois, j'v'-esqui in extremis Rap français, on pull up comme dix extrémistes Han Braque l'industrie comme le gang des Lyonnais Dans l'verre, l'mélange est violet, d'vant comme Cristiano et Lionel So Tha Trickaz, toujours discret, pas tricard Concu', on les graille comme des chips au paprika Ah J'roule un maxi-teh, j'ai des flows par citerne Ma p'tite est archi-belle, faut qu'j'l'emmène dans les archipels So Stavo Fondation International Fois trois, Caliweed, j'roule un teh international You might also like J'arrive accompagné comme la première balle de la rafale Grr, pah, pah, pah So Gaza chaque jour, R.E.P Yasser Arafat Arafat, Arafat J'arrive accompagné comme la première balle de la rafale Grr, pah, pah, pah So Gaza chaque jour, R.E.P Yasser Arafat Arafat, Arafat J'écoute l'instru' et là, j'm'apprête à découper ça Un opps qui saigne la tête au sol et pour terminer ça J'pouvais pas louper ça comme les gros à Vanessa Dans ma tête des images passent, dans ma tête j'refais tout l'dessin Je jure devant Dieu, dans mes poches, j'ai jamais eu d'oursins Y a des moments, j'avais pas one, des moments, j'dépensais pour cinq Cinq Big O.G depuis les années 2000, tu connais Tu connais Et j'vois tous vos rappeurs comme des mini-poneys Poneys, hey On a grandi dans la crise Dans la crise, la est blanche Brr mais l'arme est grise Brr Essaye de nous faire tremper qu'on met tes deux doigts dans la prise On recrute, on donne du travail, tombe dans la bataille J'arrive accompagné comme la première balle de la rafale Grr, pah, pah, pah So Gaza chaque jour, R.E.P Yasser Arafat Arafat, Arafat J'arrive accompagné comme la première balle de la rafale Grr, pah, pah, pah So Gaza chaque jour, R.E.P Yasser Arafat Arafat, Arafat</t>
+          <t>So le Flem Corleone et 22 Ekip, j'roule des Philly, j'mets des vingt d'beuh Fuck 12, le 17 et les 22 Lin, Fanta orange, j'remonte la balle comme Ja Morant Au Sénégal, il m'faut tout de la villa au ranch Black Macaroni, so Tony Bamboula Ekip C'est moi ou la prod' comme si on est à deux dans l'goulag Pah Ekip à fond, so A.S.B gang, Goulag Ekip Négro capte pas c'que j'dis comme si j'rappais en pulaar Hein Fume que d'l'artifice, au-d'ssus comme un feu d'artifice On n'parle pas d'être-humain quand on parle de sacrifice Ah So les blindages, à chaque fois, j'v'-esqui in extremis Rap français, on pull up comme dix extrémistes Han Braque l'industrie comme le gang des Lyonnais Dans l'verre, l'mélange est violet, d'vant comme Cristiano et Lionel So Tha Trickaz, toujours discret, pas tricard Concu', on les graille comme des chips au paprika Ah J'roule un maxi-teh, j'ai des flows par citerne Ma p'tite est archi-belle, faut qu'j'l'emmène dans les archipels So Stavo Fondation International Fois trois, Caliweed, j'roule un teh international J'arrive accompagné comme la première balle de la rafale Grr, pah, pah, pah So Gaza chaque jour, R.E.P Yasser Arafat Arafat, Arafat J'arrive accompagné comme la première balle de la rafale Grr, pah, pah, pah So Gaza chaque jour, R.E.P Yasser Arafat Arafat, Arafat J'écoute l'instru' et là, j'm'apprête à découper ça Un opps qui saigne la tête au sol et pour terminer ça J'pouvais pas louper ça comme les gros à Vanessa Dans ma tête des images passent, dans ma tête j'refais tout l'dessin Je jure devant Dieu, dans mes poches, j'ai jamais eu d'oursins Y a des moments, j'avais pas one, des moments, j'dépensais pour cinq Cinq Big O.G depuis les années 2000, tu connais Tu connais Et j'vois tous vos rappeurs comme des mini-poneys Poneys, hey On a grandi dans la crise Dans la crise, la est blanche Brr mais l'arme est grise Brr Essaye de nous faire tremper qu'on met tes deux doigts dans la prise On recrute, on donne du travail, tombe dans la bataille J'arrive accompagné comme la première balle de la rafale Grr, pah, pah, pah So Gaza chaque jour, R.E.P Yasser Arafat Arafat, Arafat J'arrive accompagné comme la première balle de la rafale Grr, pah, pah, pah So Gaza chaque jour, R.E.P Yasser Arafat Arafat, Arafat</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>J'suis pas un pédé, j'passe pas au JT, j'sors de la rate, j'soulève deux paires à JD J'ai pas fait une barrette, les cops sont agités, j'découpe, la lame est affûtée Si tu les écoutes, frérot, tu vas chuter, tous les jours la même, on finit shités Les bep, on fait qu'les éviter, y a aucune pitié pour ces vieux poulets Y'a l'gue-din qui lin sur la foulée, tu m'aimes pas parce que j'ai eu c'que tu voulais Le pogo est grave, ta cheville est foulée, drip, la sacoche est mouillée Le bep est choqué après m'avoir fouillé, s'il savait c'que j'ai dans les couilles Y a la popo derrière, j'm'accroche au guidon, j'leur ai pété dessus, ils sont bidons Elle a dit à sa pote que mon truc est long, si t'es au comico, oublie nom prénom J'ai d'la coco, j'la visser dans la pénombre, la juge m'a mis trois années pour stup' Alors qu'elle a mis un mois à un pédo, dans deux mois, il va r'baisser son fute J'me refais un cup, RIP Fredo, té-ma, on dirait qu'j'ai roulé un poteau J'suis serein seulement quand j'té-mon sur la moto et j'vois que des putos, j'vais sortir les couteaux Sur ta te-tê, bitch, j'vais éclater les boutons, j'vais éclater les boutons Toute l'année, j'ai du sirop et j'le dilue et mon espérance de vie diminue Tu veux pas payer ? Tu finis nu, fils de putain, pour moi, t'es qu'un petit minus Des cokés ont ma dope dans les sinus, des cokés ont ma dope dans les sinus Des cokés ont ma dope dans les sinus, fils de putain, pour moi, t'es qu'un petit minus Fioti, Fioti, Fioti, plus d'un le-bou le petit il a fait bouger C'était la merde chez nous y'a 5 ans, y'avait pas de lumière, y'avait que des bougies J'suis dans l'fond du club, j'ai posé deux balles et cette bitch, son cul, elle fait qu'bouger Des rebeus ont porté plainte pour violence alors que j'les ai même pas touchés Si tu veux la frappe, mon petit, viens m'voir, ma consommation va t'faire loucher T'imagines pas la sel3a qu'on a, t'imagines pas à combien le Ashe l'a touchée Frérot, arrête, arrête de parler, si j't'en mets une seule, tu vas t'coucher J'les vois faire la mala à fond dans l'club mais dans l'fond, j'sais qu'ils sont tous fauchés Boy, mais dans l'fond, j'sais qu'ils sont tous fauchés Tous fauchés, tou-tou-tous fauchésYou might also like1</t>
+          <t>J'suis pas un pédé, j'passe pas au JT, j'sors de la rate, j'soulève deux paires à JD J'ai pas fait une barrette, les cops sont agités, j'découpe, la lame est affûtée Si tu les écoutes, frérot, tu vas chuter, tous les jours la même, on finit shités Les bep, on fait qu'les éviter, y a aucune pitié pour ces vieux poulets Y'a l'gue-din qui lin sur la foulée, tu m'aimes pas parce que j'ai eu c'que tu voulais Le pogo est grave, ta cheville est foulée, drip, la sacoche est mouillée Le bep est choqué après m'avoir fouillé, s'il savait c'que j'ai dans les couilles Y a la popo derrière, j'm'accroche au guidon, j'leur ai pété dessus, ils sont bidons Elle a dit à sa pote que mon truc est long, si t'es au comico, oublie nom prénom J'ai d'la coco, j'la visser dans la pénombre, la juge m'a mis trois années pour stup' Alors qu'elle a mis un mois à un pédo, dans deux mois, il va r'baisser son fute J'me refais un cup, RIP Fredo, té-ma, on dirait qu'j'ai roulé un poteau J'suis serein seulement quand j'té-mon sur la moto et j'vois que des putos, j'vais sortir les couteaux Sur ta te-tê, bitch, j'vais éclater les boutons, j'vais éclater les boutons Toute l'année, j'ai du sirop et j'le dilue et mon espérance de vie diminue Tu veux pas payer ? Tu finis nu, fils de putain, pour moi, t'es qu'un petit minus Des cokés ont ma dope dans les sinus, des cokés ont ma dope dans les sinus Des cokés ont ma dope dans les sinus, fils de putain, pour moi, t'es qu'un petit minus Fioti, Fioti, Fioti, plus d'un le-bou le petit il a fait bouger C'était la merde chez nous y'a 5 ans, y'avait pas de lumière, y'avait que des bougies J'suis dans l'fond du club, j'ai posé deux balles et cette bitch, son cul, elle fait qu'bouger Des rebeus ont porté plainte pour violence alors que j'les ai même pas touchés Si tu veux la frappe, mon petit, viens m'voir, ma consommation va t'faire loucher T'imagines pas la sel3a qu'on a, t'imagines pas à combien le Ashe l'a touchée Frérot, arrête, arrête de parler, si j't'en mets une seule, tu vas t'coucher J'les vois faire la mala à fond dans l'club mais dans l'fond, j'sais qu'ils sont tous fauchés Boy, mais dans l'fond, j'sais qu'ils sont tous fauchés Tous fauchés, tou-tou-tous fauchés1</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hey, hey, hey So le Flem Ha-ha-ha So le Amine 6.6.7, L.Z Freeze, 2-2 Hey, hey Pah, hey Demande à big Freeze Corleone, les rappeurs, on les effraie C'est vrai La chronique, on la défraie, si on vient te cogner, les soins sont à tes frais Splash Ici, c'est gris, c'est pas les tropiques et dans nos poumons, c'est l'coffee Hey Tout est possible, tout s'négocie Hey et les p'tits admirent les grossistes Brr Mike Amiri, BlackBerry Rah, j'envoie les euros en Algérie J'connais pas une go difficile à gérer, tous ceux qui s'en sont prit à nous ont péri J'ajoute la vitesse, on l'fait, c'est facile, tout est dans la finesse Hey, hey Pas attendu qu'ils naissent, si y avait une , j'serais dans l'Guinness Brr, pah Pas l'temps d'faire ami-ami, j'fais les euros pour la famille Famille, hey On déboule à plus d'cinquante si on est invités à la party Party On leur brise les os, du fois trois d'baisé, la street c'est réel, j'enterre ces pussys J'suis dans la ville, ils ont pas l'budget que j'demande aux G, ils parlent de VVS, c'est très charnel You might also like Moissanite Moissanite, moissanite moissanite Moissanite Moissanite, VVS, pas d'moissanite Ice, ice, ice Moissanite Moissanite, moissanite moissanite Moissanite Moissanite, VVS, pas d'moissanite Ice, ice, ice Moissanite, VVS, pas d'moissanite Ice, VVS, pas d'moissanite Skrrr Moissanite, VVS, pas d'moissanite Brr, VVS, pas d'moissanite Ice Moissanite, VVS, pas d'moissanite Charcle, charcle, VVS, pas d'moissanite Nan Moissanite, VVS, pas d'moissanite Ice, VVS, pas d'moissanite Eh Lin dans la valise Lin, le filtre, la Cali, on a tout, négro, so à Valee So Rapi, Ouchini pas Cavalli, devant la cage comme Benzema, pas Cavani nan No cap, rien à te prouver nan, so Kira aucun mal à te trouver nan Si tu perds ta vie Pah, tu pourras jamais la retrouver On est là pour faire des sommes indécentes Cash, on va les refroidir comme en plein décembre Si j'ai pris cent prods, j'en ai flingué cent Woaw, c'est l'début d'la fin comme le 21 décembre Y a que pour la famille que j'coffre des parts, prêt, depuis j'attendais que l'top départ On les fait tomber facile comme des cartes Han, on est comme des F1, ils sont comme des karts Nous, on est solides, bombarde dans les bolides, Cartier et Rollie, j'arrive pété au lean Grave déter' comme si j'avais pop des Molly, drift comme dans les Colline, faut villas dans des collines Cookie gelato, c'est pas des glaces, c'est pas des gâteaux Nan Ekip à fond comme Renato Ekip, on est liés comme des Legato Moissanite Moissanite, moissanite moissanite Moissanite Moissanite, VVS, pas d'moissanite Ice, ice, ice Moissanite Moissanite, moissanite moissanite Moissanite Moissanite, VVS, pas d'moissanite Ice, ice, ice Moissanite, VVS, pas d'moissanite Ice, VVS, pas d'moissanite Skurt Moissanite, VVS, pas d'moissanite Brr, VVS, pas d'moissanite Ice Moissanite, VVS, pas d'moissanite Charcle, charcle, VVS, pas d'moissanite Nan Moissanite, VVS, pas d'moissanite Ice, VVS, pas d'moissanite Eh J'ajoute la vitesse, on l'fait, c'est facile, tout est dans la finesse Si y avait une page , j'serais dans l'Guinness Cookie gelato, c'est pas des glaces, c'est pas des gâteaux Ekip à fond comme Renato, on est liés comme des Legato Ekip</t>
+          <t>Hey, hey, hey So le Flem Ha-ha-ha So le Amine 6.6.7, L.Z Freeze, 2-2 Hey, hey Pah, hey Demande à big Freeze Corleone, les rappeurs, on les effraie C'est vrai La chronique, on la défraie, si on vient te cogner, les soins sont à tes frais Splash Ici, c'est gris, c'est pas les tropiques et dans nos poumons, c'est l'coffee Hey Tout est possible, tout s'négocie Hey et les p'tits admirent les grossistes Brr Mike Amiri, BlackBerry Rah, j'envoie les euros en Algérie J'connais pas une go difficile à gérer, tous ceux qui s'en sont prit à nous ont péri J'ajoute la vitesse, on l'fait, c'est facile, tout est dans la finesse Hey, hey Pas attendu qu'ils naissent, si y avait une , j'serais dans l'Guinness Brr, pah Pas l'temps d'faire ami-ami, j'fais les euros pour la famille Famille, hey On déboule à plus d'cinquante si on est invités à la party Party On leur brise les os, du fois trois d'baisé, la street c'est réel, j'enterre ces pussys J'suis dans la ville, ils ont pas l'budget que j'demande aux G, ils parlent de VVS, c'est très charnel Moissanite Moissanite, moissanite moissanite Moissanite Moissanite, VVS, pas d'moissanite Ice, ice, ice Moissanite Moissanite, moissanite moissanite Moissanite Moissanite, VVS, pas d'moissanite Ice, ice, ice Moissanite, VVS, pas d'moissanite Ice, VVS, pas d'moissanite Skrrr Moissanite, VVS, pas d'moissanite Brr, VVS, pas d'moissanite Ice Moissanite, VVS, pas d'moissanite Charcle, charcle, VVS, pas d'moissanite Nan Moissanite, VVS, pas d'moissanite Ice, VVS, pas d'moissanite Eh Lin dans la valise Lin, le filtre, la Cali, on a tout, négro, so à Valee So Rapi, Ouchini pas Cavalli, devant la cage comme Benzema, pas Cavani nan No cap, rien à te prouver nan, so Kira aucun mal à te trouver nan Si tu perds ta vie Pah, tu pourras jamais la retrouver On est là pour faire des sommes indécentes Cash, on va les refroidir comme en plein décembre Si j'ai pris cent prods, j'en ai flingué cent Woaw, c'est l'début d'la fin comme le 21 décembre Y a que pour la famille que j'coffre des parts, prêt, depuis j'attendais que l'top départ On les fait tomber facile comme des cartes Han, on est comme des F1, ils sont comme des karts Nous, on est solides, bombarde dans les bolides, Cartier et Rollie, j'arrive pété au lean Grave déter' comme si j'avais pop des Molly, drift comme dans les Colline, faut villas dans des collines Cookie gelato, c'est pas des glaces, c'est pas des gâteaux Nan Ekip à fond comme Renato Ekip, on est liés comme des Legato Moissanite Moissanite, moissanite moissanite Moissanite Moissanite, VVS, pas d'moissanite Ice, ice, ice Moissanite Moissanite, moissanite moissanite Moissanite Moissanite, VVS, pas d'moissanite Ice, ice, ice Moissanite, VVS, pas d'moissanite Ice, VVS, pas d'moissanite Skurt Moissanite, VVS, pas d'moissanite Brr, VVS, pas d'moissanite Ice Moissanite, VVS, pas d'moissanite Charcle, charcle, VVS, pas d'moissanite Nan Moissanite, VVS, pas d'moissanite Ice, VVS, pas d'moissanite Eh J'ajoute la vitesse, on l'fait, c'est facile, tout est dans la finesse Si y avait une page , j'serais dans l'Guinness Cookie gelato, c'est pas des glaces, c'est pas des gâteaux Ekip à fond comme Renato, on est liés comme des Legato Ekip</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>So le Flem 2-2 So le Amine Freeze Ekip, ekip, ekip Gros teh, gros verre Accélère au vert Depuis, j'opère Eh, hey Han, han Gros teh, gros verre Lin, ta pute veut offrir ses ovaires Pétasse Accélère, au vert, allô le big Brr ? Faut qu'on flex en Espagne, s'mettre au vert Skurt Depuis, j'opère Han, dans l'industrie comme le Joker Ah Rien qu'ils bluffent comme au poker Bluff, nous contr eux, c'est des pit contr des cokers Ouh Envoie les prods, on les casse par douze Han, so Afro S, j'ai v'là d'cartouches Pah OG Baye Fall Bamba Partout Han, faut des liasses plus grandes que Passe-Partout Cash So le Flem, so le Amine Farsi, concu' on les fume comme des p'tits gares-ci Gares-ci Toute la journée, j'enchaîne les plis par six, j'ai la vision comme Jay Z d'Marcy Merde Triple filtre dans le calumet, un mouv' de fufu pour t'annuler Han T'es comme une lampe un clic pour t'allumer Ouh Corleone, très calme mais j'connais des gens bizarres Eh Grosse Moncler, j'avance dans l'blizzard Han, noir sur noir comme un sans-visage Que les gros gaz, négro, jamais la locale, fuck 12, so les avocats Grosse montre, t'inquiètes pas qu'elle est pas d'occas' Il m'faut des terres, il m'faut quatre domaines Han, 2-2, Corleone, on les baise dans chaque domaine Shooter précis comme en NBA Han, t'inquiètes pas qu'ça vise pas l'abdomen Pah, pah You might also like Billets Cash, on n'est pas là pour briller Nan Big billets Cash, cash, on arrive pour les piller Skuh Billets Han, faut les multiplier Big billets, grosse liasse, ça peut même pas les plier Pah, skurt, nan Billets, billets, billets, on n'est pas là pour briller Nan Billets, big billets, on arrive pour les piller Ouh Billets, billets, billets, faut les multiplier Cash Billets, big billets, grosse liasse, ça peut même pas les plier Pah Deux-mille dans la poche Shoo, six dans le clip Le sang est rouge comme un Blood mais son corps est bleu comme un Crip Ouh, ouh J'suis dans le BM, il regarde mal, sa bitch est dans mes DM C'est pas un clip, si on t'allume, c'est réel Eh Tu t'réveilles pas demain, trop de trous, ton corps aura l'air d'un vieux jean Balmain Skurt Quand les 45 crient, tous les ennemis s'taillent, j'viens les éteindre comme Gengis Khan J'ai toujours un as dans la poche, tu parles rarement lame à la gorge Cash Money comme Nino B, cette bad bitch veut piloter Eh Elle donne son corps facilement, dans l'Cîroc, elle veut siroter Mafia, parait qu'on est bons qu'à ça Brr, ouh Mon nouveau jouet est froid, pourtant, tu finiras dans l'rafia Y a que des visages fermés dans le périmètre Brr, royauté, c'est plus cher qu'un Série 7 Tu parles moins devant le métal, ta vie, c'est un détail, on t'l'enlève avec un 9 millimètres Brr Movie, chez nous, c'est dur à la Poutine, le ciel est noir comme un Uzi On parle pas, on sourit, on t'allume comme une bougie Splash Movie, chez nous, c'est dur à la Poutine, le ciel est noir comme un Uzi On n'est pas mécano, pourtant, la plupart possède des outils Rah, rah, rah, rah, pah, pah Billets Cash, on n'est pas là pour briller Nan Big billets Cash, cash, on arrive pour les piller Ouh Billets Han, faut les multiplier Big billets, grosse liasse, ça peut même pas les plier Pah, skurt, nan Billets, billets, billets, on n'est pas là pour briller Nan Billets, big billets, on arrive pour les piller Ouh Billets, billets, billets, faut les multiplier Cash Billets, big billets, grosse liasse, ça peut même pas les plier Pah Billets, on n'est pas là pour briller On arrive pour les piller Billets, faut les multiplier Grosse liasse, ça peut même pas les plier Billets, billets, billets Billets, billets, billets Billets, billets, billets1</t>
+          <t>So le Flem 2-2 So le Amine Freeze Ekip, ekip, ekip Gros teh, gros verre Accélère au vert Depuis, j'opère Eh, hey Han, han Gros teh, gros verre Lin, ta pute veut offrir ses ovaires Pétasse Accélère, au vert, allô le big Brr ? Faut qu'on flex en Espagne, s'mettre au vert Skurt Depuis, j'opère Han, dans l'industrie comme le Joker Ah Rien qu'ils bluffent comme au poker Bluff, nous contr eux, c'est des pit contr des cokers Ouh Envoie les prods, on les casse par douze Han, so Afro S, j'ai v'là d'cartouches Pah OG Baye Fall Bamba Partout Han, faut des liasses plus grandes que Passe-Partout Cash So le Flem, so le Amine Farsi, concu' on les fume comme des p'tits gares-ci Gares-ci Toute la journée, j'enchaîne les plis par six, j'ai la vision comme Jay Z d'Marcy Merde Triple filtre dans le calumet, un mouv' de fufu pour t'annuler Han T'es comme une lampe un clic pour t'allumer Ouh Corleone, très calme mais j'connais des gens bizarres Eh Grosse Moncler, j'avance dans l'blizzard Han, noir sur noir comme un sans-visage Que les gros gaz, négro, jamais la locale, fuck 12, so les avocats Grosse montre, t'inquiètes pas qu'elle est pas d'occas' Il m'faut des terres, il m'faut quatre domaines Han, 2-2, Corleone, on les baise dans chaque domaine Shooter précis comme en NBA Han, t'inquiètes pas qu'ça vise pas l'abdomen Pah, pah Billets Cash, on n'est pas là pour briller Nan Big billets Cash, cash, on arrive pour les piller Skuh Billets Han, faut les multiplier Big billets, grosse liasse, ça peut même pas les plier Pah, skurt, nan Billets, billets, billets, on n'est pas là pour briller Nan Billets, big billets, on arrive pour les piller Ouh Billets, billets, billets, faut les multiplier Cash Billets, big billets, grosse liasse, ça peut même pas les plier Pah Deux-mille dans la poche Shoo, six dans le clip Le sang est rouge comme un Blood mais son corps est bleu comme un Crip Ouh, ouh J'suis dans le BM, il regarde mal, sa bitch est dans mes DM C'est pas un clip, si on t'allume, c'est réel Eh Tu t'réveilles pas demain, trop de trous, ton corps aura l'air d'un vieux jean Balmain Skurt Quand les 45 crient, tous les ennemis s'taillent, j'viens les éteindre comme Gengis Khan J'ai toujours un as dans la poche, tu parles rarement lame à la gorge Cash Money comme Nino B, cette bad bitch veut piloter Eh Elle donne son corps facilement, dans l'Cîroc, elle veut siroter Mafia, parait qu'on est bons qu'à ça Brr, ouh Mon nouveau jouet est froid, pourtant, tu finiras dans l'rafia Y a que des visages fermés dans le périmètre Brr, royauté, c'est plus cher qu'un Série 7 Tu parles moins devant le métal, ta vie, c'est un détail, on t'l'enlève avec un 9 millimètres Brr Movie, chez nous, c'est dur à la Poutine, le ciel est noir comme un Uzi On parle pas, on sourit, on t'allume comme une bougie Splash Movie, chez nous, c'est dur à la Poutine, le ciel est noir comme un Uzi On n'est pas mécano, pourtant, la plupart possède des outils Rah, rah, rah, rah, pah, pah Billets Cash, on n'est pas là pour briller Nan Big billets Cash, cash, on arrive pour les piller Ouh Billets Han, faut les multiplier Big billets, grosse liasse, ça peut même pas les plier Pah, skurt, nan Billets, billets, billets, on n'est pas là pour briller Nan Billets, big billets, on arrive pour les piller Ouh Billets, billets, billets, faut les multiplier Cash Billets, big billets, grosse liasse, ça peut même pas les plier Pah Billets, on n'est pas là pour briller On arrive pour les piller Billets, faut les multiplier Grosse liasse, ça peut même pas les plier Billets, billets, billets Billets, billets, billets Billets, billets, billets1</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>So le Flem J'sais qu'ils ont volé toutes nos terres, veulent qu'on soit concentrés sur le cours d'l'Ether J'dois faire graille tous les frères, j'm'en bats les couilles des paires J'veux le cash, rien à foutre des keh, pleine lucarne, j'la mets sous l'équerre 20-21, on arrive full déter', dans la trap house, que ça roule des tehs Ouais, j'ai le cur en morceau, des frères en promenade qui taffent les dorsaux Y a des choses que j'me suis promis de n'pas faire Comme en affaires, dans la vie, y a des choses à ne pas faire Faut les codes pour s'lancer dans les affaires, joue pas avec nos émotions ramène les affaires 6.6.7, Lyonzon, équipe de barbares, 2-2, Freeze, on peut écrire plus de dix milles bars, bars On arrive sur la prod' comme dix milles , Et des MC's j'en termine plus d'dix milles barbas Maintenant si j'veux, j'facture le feat dix milles par bars Hein, dix milles par bars Ils ont essayé d'nous effacer, on les a tous dépassés 'passés Art de la guerre, maîtrise du terrain Terrain, terrainYou might also like</t>
+          <t>So le Flem J'sais qu'ils ont volé toutes nos terres, veulent qu'on soit concentrés sur le cours d'l'Ether J'dois faire graille tous les frères, j'm'en bats les couilles des paires J'veux le cash, rien à foutre des keh, pleine lucarne, j'la mets sous l'équerre 20-21, on arrive full déter', dans la trap house, que ça roule des tehs Ouais, j'ai le cur en morceau, des frères en promenade qui taffent les dorsaux Y a des choses que j'me suis promis de n'pas faire Comme en affaires, dans la vie, y a des choses à ne pas faire Faut les codes pour s'lancer dans les affaires, joue pas avec nos émotions ramène les affaires 6.6.7, Lyonzon, équipe de barbares, 2-2, Freeze, on peut écrire plus de dix milles bars, bars On arrive sur la prod' comme dix milles , Et des MC's j'en termine plus d'dix milles barbas Maintenant si j'veux, j'facture le feat dix milles par bars Hein, dix milles par bars Ils ont essayé d'nous effacer, on les a tous dépassés 'passés Art de la guerre, maîtrise du terrain Terrain, terrain</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>La tension ne retombe pas entre Paris et Alger, près de soixante ans après la fin de la colonisation. Tout est parti des déclarations, il y a une dizaine de jours, d'Emmanuel Macron qui dit que l'Algérie vit sur une rente mémorielle. Colère d'Alger, qui a interdit notamment le survol de son territoire par les avions français de l'opération Barkhane. Voilà où on en est. Hier soir, le président algérien a pris la parole, la première fois depuis le début de cette crise diplomatique, et euh... Il a demandé à la France de respecter l'État algérien Lybie, en août dernier. En pleine nuit, un homme s'adresse à la foule. Des hommes grands et forts pour les travaux de la ferme, dit-il. Des prix, ceux de ces migrants, vendus mille-deux-cents dinars lybiens, sept-cent-quarante-deux euros. Une enchère aux esclaves. Une vidéo que s'est procuré la chaîne américaine CNN et dont elle a pu vérifier l'authenticité. Après des mois d'investigations, cette équipe arrive à se rendre sur place en Lybie. En caméra cachée, elle assiste à une vente d'êtres humains D'êtres humains, d'êtres humainsYou might also like</t>
+          <t>La tension ne retombe pas entre Paris et Alger, près de soixante ans après la fin de la colonisation. Tout est parti des déclarations, il y a une dizaine de jours, d'Emmanuel Macron qui dit que l'Algérie vit sur une rente mémorielle. Colère d'Alger, qui a interdit notamment le survol de son territoire par les avions français de l'opération Barkhane. Voilà où on en est. Hier soir, le président algérien a pris la parole, la première fois depuis le début de cette crise diplomatique, et euh... Il a demandé à la France de respecter l'État algérien Lybie, en août dernier. En pleine nuit, un homme s'adresse à la foule. Des hommes grands et forts pour les travaux de la ferme, dit-il. Des prix, ceux de ces migrants, vendus mille-deux-cents dinars lybiens, sept-cent-quarante-deux euros. Une enchère aux esclaves. Une vidéo que s'est procuré la chaîne américaine CNN et dont elle a pu vérifier l'authenticité. Après des mois d'investigations, cette équipe arrive à se rendre sur place en Lybie. En caméra cachée, elle assiste à une vente d'êtres humains D'êtres humains, d'êtres humains</t>
         </is>
       </c>
     </row>
